--- a/biology/Botanique/Aechmea_magdalenae/Aechmea_magdalenae.xlsx
+++ b/biology/Botanique/Aechmea_magdalenae/Aechmea_magdalenae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea magdalenae est une espèce de plantes à fleurs de la famille des Bromeliaceae, qui se rencontre du Mexique à l'Équateur. Cultivée au Mexique, elle est utilisée pour ses fibres dans la fabrication d'articles de broderie sur cuir.
 </t>
@@ -511,11 +523,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ananas magdalenae (André) Standl.[1] ;
-Bromelia magdalenae (André) C.H.Wright[1]
-Chevaliera magdalenae André[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ananas magdalenae (André) Standl. ;
+Bromelia magdalenae (André) C.H.Wright
+Chevaliera magdalenae André</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa distribution de l'espèce est large à travers l'Amérique centrale et le nord-ouest de l'Amérique du Sud. On la rencontre dans de nombreux pays dont le Mexique, Costa Rica, Honduras, Belize, Panama, Colombie et Équateur[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa distribution de l'espèce est large à travers l'Amérique centrale et le nord-ouest de l'Amérique du Sud. On la rencontre dans de nombreux pays dont le Mexique, Costa Rica, Honduras, Belize, Panama, Colombie et Équateur
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est rupicole ou hémicryptophyte[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est rupicole ou hémicryptophyte.
 </t>
         </is>
       </c>
@@ -607,8 +625,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Utilisation par l'homme
-L'espèce est cultivée dans le Sud du Mexique pour ses fibres soyeuses sous le nom de ixtle pour servir de broderie sur des articles de cuir dans un art connu sous le nom de el piteado[3].
+          <t>Utilisation par l'homme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est cultivée dans le Sud du Mexique pour ses fibres soyeuses sous le nom de ixtle pour servir de broderie sur des articles de cuir dans un art connu sous le nom de el piteado.
 </t>
         </is>
       </c>
